--- a/FinalExam/LeVanChinh-SQL-FinalExam.xlsx
+++ b/FinalExam/LeVanChinh-SQL-FinalExam.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\BAI THI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94FE1005-FAF8-444D-8ADE-2B626E55CDD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67BADA64-4F29-4921-84D9-AC365D353B82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7170" yWindow="690" windowWidth="15375" windowHeight="8085" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Answer Sheet" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="42">
   <si>
     <t xml:space="preserve">Mã: </t>
   </si>
@@ -716,6 +716,21 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -724,21 +739,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1086,7 +1086,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="11" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1097,7 +1097,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="35"/>
+      <c r="A1" s="40"/>
       <c r="B1" s="1" t="s">
         <v>38</v>
       </c>
@@ -1106,7 +1106,7 @@
       <c r="E1" s="3"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="36"/>
+      <c r="A2" s="41"/>
       <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
@@ -1117,7 +1117,7 @@
       <c r="E2" s="8"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="36"/>
+      <c r="A3" s="41"/>
       <c r="B3" s="9" t="s">
         <v>1</v>
       </c>
@@ -1128,7 +1128,7 @@
       <c r="E3" s="12"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="36"/>
+      <c r="A4" s="41"/>
       <c r="B4" s="13" t="s">
         <v>2</v>
       </c>
@@ -1139,7 +1139,7 @@
       <c r="E4" s="16"/>
     </row>
     <row r="5" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="37"/>
+      <c r="A5" s="42"/>
       <c r="B5" s="13" t="s">
         <v>37</v>
       </c>
@@ -1203,14 +1203,16 @@
       <c r="D13" s="19"/>
       <c r="E13" s="27"/>
     </row>
-    <row r="14" spans="1:5" s="42" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="38" t="s">
+    <row r="14" spans="1:5" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="39"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="41"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="38"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="24" t="s">
@@ -1333,14 +1335,16 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:5" s="42" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="38" t="s">
+    <row r="26" spans="1:5" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="39"/>
-      <c r="C26" s="40"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="41"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" s="37"/>
+      <c r="E26" s="38"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="24" t="s">
@@ -1397,14 +1401,16 @@
       <c r="D31" s="19"/>
       <c r="E31" s="27"/>
     </row>
-    <row r="32" spans="1:5" s="42" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="38" t="s">
+    <row r="32" spans="1:5" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="39"/>
-      <c r="C32" s="40"/>
-      <c r="D32" s="40"/>
-      <c r="E32" s="41"/>
+      <c r="B32" s="36"/>
+      <c r="C32" s="37"/>
+      <c r="D32" s="37"/>
+      <c r="E32" s="38" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="24" t="s">
